--- a/file/Production_FBTR-310169-R1.xlsx
+++ b/file/Production_FBTR-310169-R1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,19 +454,19 @@
         <v>FBTR-310169-R1</v>
       </c>
       <c r="B2" t="str">
-        <v>FBTR26010002</v>
+        <v>FBTR690100347</v>
       </c>
       <c r="C2" t="str">
-        <v>FBTR-1769792412669-0-1fxk1n4</v>
+        <v>FBTR690100347-2</v>
       </c>
       <c r="D2" t="str">
-        <v>ปกห่อหนังสือ CV4734</v>
+        <v>PVCS28</v>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>ชั้น1</v>
+        <v/>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -478,7 +478,7 @@
         <v/>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>YUUTA</v>
       </c>
       <c r="K2" t="str">
         <v/>
@@ -501,19 +501,19 @@
         <v>FBTR-310169-R1</v>
       </c>
       <c r="B3" t="str">
-        <v>FBTR26010003</v>
+        <v>FBTR690100347</v>
       </c>
       <c r="C3" t="str">
-        <v>FBTR-1769791645968-0-09s95wa</v>
+        <v>FBTR690100347-3</v>
       </c>
       <c r="D3" t="str">
-        <v>Color Pencil#24</v>
+        <v>PVCS34</v>
       </c>
       <c r="E3" t="str">
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>ชั้น1</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -525,7 +525,7 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>น้องยูตะ</v>
       </c>
       <c r="K3" t="str">
         <v/>
@@ -548,19 +548,19 @@
         <v>FBTR-310169-R1</v>
       </c>
       <c r="B4" t="str">
-        <v>FBTR26010004</v>
+        <v>FBTR690100347</v>
       </c>
       <c r="C4" t="str">
-        <v>FBTR-1769792407010-0-oeyf1vq</v>
+        <v>FBTR690100347-1</v>
       </c>
       <c r="D4" t="str">
-        <v>Color Pencil#24</v>
+        <v>PVCS27</v>
       </c>
       <c r="E4" t="str">
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>ชั้น1</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -572,7 +572,7 @@
         <v/>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>YUUTA</v>
       </c>
       <c r="K4" t="str">
         <v/>
@@ -595,22 +595,22 @@
         <v>FBTR-310169-R1</v>
       </c>
       <c r="B5" t="str">
-        <v>FBTR26010005</v>
+        <v>FBTR690100347</v>
       </c>
       <c r="C5" t="str">
-        <v>FBTR-1769792397933-0-msncdx7</v>
+        <v>FBTR690100347-4</v>
       </c>
       <c r="D5" t="str">
-        <v>ดินสอกด 2มิล PC2MA3 สีเขียว</v>
+        <v>LBT ลาเบลแท็ก</v>
       </c>
       <c r="E5" t="str">
         <v/>
       </c>
       <c r="F5" t="str">
-        <v>ชั้น1</v>
+        <v/>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -619,7 +619,7 @@
         <v/>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>น้องยูตะ ธนภัทร</v>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -642,19 +642,19 @@
         <v>FBTR-310169-R1</v>
       </c>
       <c r="B6" t="str">
-        <v>FBTR26010006</v>
+        <v>FBTR690100348</v>
       </c>
       <c r="C6" t="str">
-        <v>FBTR-1769771537453-0-2x01r82</v>
+        <v>FBTR690100348-9</v>
       </c>
       <c r="D6" t="str">
-        <v>Color Pencil#24</v>
+        <v>PVCS28</v>
       </c>
       <c r="E6" t="str">
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>ชั้น1</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -666,7 +666,7 @@
         <v/>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>ไอรีณ</v>
       </c>
       <c r="K6" t="str">
         <v/>
@@ -681,12 +681,1281 @@
         <v/>
       </c>
       <c r="O6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B7" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C7" t="str">
+        <v>FBTR690100348-1</v>
+      </c>
+      <c r="D7" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C8" t="str">
+        <v>FBTR690100348-2</v>
+      </c>
+      <c r="D8" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C9" t="str">
+        <v>FBTR690100348-3</v>
+      </c>
+      <c r="D9" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C10" t="str">
+        <v>FBTR690100348-4</v>
+      </c>
+      <c r="D10" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C11" t="str">
+        <v>FBTR690100348-5</v>
+      </c>
+      <c r="D11" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C12" t="str">
+        <v>FBTR690100348-6</v>
+      </c>
+      <c r="D12" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C13" t="str">
+        <v>FBTR690100348-7</v>
+      </c>
+      <c r="D13" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B14" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C14" t="str">
+        <v>FBTR690100348-8</v>
+      </c>
+      <c r="D14" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C15" t="str">
+        <v>FBTR690100348-10</v>
+      </c>
+      <c r="D15" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C16" t="str">
+        <v>FBTR690100348-11</v>
+      </c>
+      <c r="D16" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C17" t="str">
+        <v>FBTR690100348-12</v>
+      </c>
+      <c r="D17" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C18" t="str">
+        <v>FBTR690100348-13</v>
+      </c>
+      <c r="D18" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B19" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C19" t="str">
+        <v>FBTR690100348-14</v>
+      </c>
+      <c r="D19" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B20" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C20" t="str">
+        <v>FBTR690100348-15</v>
+      </c>
+      <c r="D20" t="str">
+        <v>PVCS28</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B21" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C21" t="str">
+        <v>FBTR690100348-16</v>
+      </c>
+      <c r="D21" t="str">
+        <v>กระบอกน้ำ BTC03 สีขาว</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B22" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C22" t="str">
+        <v>FBTR690100348-17</v>
+      </c>
+      <c r="D22" t="str">
+        <v>กระบอกน้ำ BTC02 สีชมพู</v>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v>ไอรีณ</v>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B23" t="str">
+        <v>FBTR690100348</v>
+      </c>
+      <c r="C23" t="str">
+        <v>FBTR690100348-18</v>
+      </c>
+      <c r="D23" t="str">
+        <v>กระบอกน้ำ BTC01สีฟ้า</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v>ไออุ่น</v>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B24" t="str">
+        <v>FBTR690100349</v>
+      </c>
+      <c r="C24" t="str">
+        <v>FBTR690100349-3</v>
+      </c>
+      <c r="D24" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>B036</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v>น้องมายู</v>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B25" t="str">
+        <v>FBTR690100349</v>
+      </c>
+      <c r="C25" t="str">
+        <v>FBTR690100349-4</v>
+      </c>
+      <c r="D25" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>B038</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v>น้องภูผา</v>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B26" t="str">
+        <v>FBTR690100349</v>
+      </c>
+      <c r="C26" t="str">
+        <v>FBTR690100349-5</v>
+      </c>
+      <c r="D26" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>B002</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v>ภูริณัฐ</v>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="str">
+        <v>แถม</v>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B27" t="str">
+        <v>FBTR690100349</v>
+      </c>
+      <c r="C27" t="str">
+        <v>FBTR690100349-6</v>
+      </c>
+      <c r="D27" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>B003</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v>ภัณฑิลา</v>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="str">
+        <v>แถม</v>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B28" t="str">
+        <v>FBTR690100349</v>
+      </c>
+      <c r="C28" t="str">
+        <v>FBTR690100349-7</v>
+      </c>
+      <c r="D28" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>B036</v>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v>น้องมายู</v>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="str">
+        <v>แถม</v>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B29" t="str">
+        <v>FBTR690100349</v>
+      </c>
+      <c r="C29" t="str">
+        <v>FBTR690100349-1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>B002</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v>ภูริณัฐ</v>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B30" t="str">
+        <v>FBTR690100349</v>
+      </c>
+      <c r="C30" t="str">
+        <v>FBTR690100349-2</v>
+      </c>
+      <c r="D30" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>B003</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v>ภัณฑิลา</v>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v/>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B31" t="str">
+        <v>FBTR690100349</v>
+      </c>
+      <c r="C31" t="str">
+        <v>FBTR690100349-8</v>
+      </c>
+      <c r="D31" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>B038</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v>น้องภูผา</v>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="str">
+        <v>แถม</v>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B32" t="str">
+        <v>FBTR690100350</v>
+      </c>
+      <c r="C32" t="str">
+        <v>FBTR690100350-1</v>
+      </c>
+      <c r="D32" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>L001</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v>ธีรพิพัฒน์ แสนเจริญ</v>
+      </c>
+      <c r="K32" t="str">
+        <v>น้องเบรฟ</v>
+      </c>
+      <c r="L32" t="str">
+        <v/>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>FBTR-310169-R1</v>
+      </c>
+      <c r="B33" t="str">
+        <v>FBTR690100350</v>
+      </c>
+      <c r="C33" t="str">
+        <v>FBTR690100350-2</v>
+      </c>
+      <c r="D33" t="str">
+        <v>CTT คริสตัลแท็ก</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>L001</v>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v>ธีร์รกฤษฏิ์ แสนเจริญ</v>
+      </c>
+      <c r="K33" t="str">
+        <v>น้องไบร์ท</v>
+      </c>
+      <c r="L33" t="str">
+        <v/>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O33"/>
   </ignoredErrors>
 </worksheet>
 </file>